--- a/Microsoft Excel/Tanvir/Day 10.xlsx
+++ b/Microsoft Excel/Tanvir/Day 10.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tarato/Documents/GitHub/Spreadsheet/Microsoft Excel/Tanvir/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E99C375-E326-D748-A0F1-A9C1E6206613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D7EE74-14FE-8C40-AD97-FC6BBA716E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15940" xr2:uid="{A1409650-EF2D-BE4D-A55A-C9F823DBF635}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15940" activeTab="1" xr2:uid="{A1409650-EF2D-BE4D-A55A-C9F823DBF635}"/>
   </bookViews>
   <sheets>
     <sheet name="ifs" sheetId="1" r:id="rId1"/>
+    <sheet name="rest of the functions are cover" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Name</t>
   </si>
@@ -78,6 +79,21 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>Billa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anoy :) </t>
+  </si>
+  <si>
+    <t>Shimul</t>
+  </si>
+  <si>
+    <t>Sagor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hey It's only for fun :) </t>
   </si>
 </sst>
 </file>
@@ -113,8 +129,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,18 +448,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37D51BF9-8816-A545-A768-8848CB436CE6}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="242" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="4" max="4" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -454,7 +473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -462,16 +481,19 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="str" cm="1">
         <f t="array" ref="D2">_xlfn.IFS(AND(B2&gt;20,C2="yes"),"you can have sex any moment",AND(B2&gt;2,C2="no"),"Oh boy go marry first",AND(B2&lt;=20,C2="no"),"Grow first")</f>
-        <v>you can have sex any moment</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>Oh boy go marry first</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
       <c r="B3">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -480,8 +502,168 @@
         <f t="array" ref="D3">_xlfn.IFS(AND(B3&gt;20,C3="yes"),"you can have sex any moment",AND(B3&gt;20,C3="no"),"Oh boy go marry first",AND(B3&lt;=20,C3="no"),"Grow first")</f>
         <v>Grow first</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="str" cm="1">
+        <f t="array" ref="D4">_xlfn.IFS(AND(B4&gt;20,C4="yes"),"you can have sex any moment",AND(B4&gt;20,C4="no"),"Oh boy go marry first",AND(B4&lt;=20,C4="no"),"Grow first")</f>
+        <v>Oh boy go marry first</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="str" cm="1">
+        <f t="array" ref="D5">_xlfn.IFS(AND(B5&gt;20,C5="yes"),"you can have sex any moment",AND(B5&gt;20,C5="no"),"Oh boy go marry first",AND(B5&lt;=20,C5="no"),"Grow first")</f>
+        <v>Oh boy go marry first</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="str" cm="1">
+        <f t="array" ref="D6">_xlfn.IFS(AND(B6&gt;20,C6="yes"),"you can have sex any moment",AND(B6&gt;20,C6="no"),"Oh boy go marry first",AND(B6&lt;=20,C6="no"),"Grow first")</f>
+        <v>you can have sex any moment</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D7" t="e" cm="1">
+        <f t="array" ref="D7">_xlfn.IFS(AND(B7&gt;20,C7="yes"),"you can have sex any moment",AND(B7&gt;20,C7="no"),"Oh boy go marry first",AND(B7&lt;=20,C7="no"),"Grow first")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D8" t="e" cm="1">
+        <f t="array" ref="D8">_xlfn.IFS(AND(B8&gt;20,C8="yes"),"you can have sex any moment",AND(B8&gt;20,C8="no"),"Oh boy go marry first",AND(B8&lt;=20,C8="no"),"Grow first")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D9" t="e" cm="1">
+        <f t="array" ref="D9">_xlfn.IFS(AND(B9&gt;20,C9="yes"),"you can have sex any moment",AND(B9&gt;20,C9="no"),"Oh boy go marry first",AND(B9&lt;=20,C9="no"),"Grow first")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D10" t="e" cm="1">
+        <f t="array" ref="D10">_xlfn.IFS(AND(B10&gt;20,C10="yes"),"you can have sex any moment",AND(B10&gt;20,C10="no"),"Oh boy go marry first",AND(B10&lt;=20,C10="no"),"Grow first")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D11" t="e" cm="1">
+        <f t="array" ref="D11">_xlfn.IFS(AND(B11&gt;20,C11="yes"),"you can have sex any moment",AND(B11&gt;20,C11="no"),"Oh boy go marry first",AND(B11&lt;=20,C11="no"),"Grow first")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D12" t="e" cm="1">
+        <f t="array" ref="D12">_xlfn.IFS(AND(B12&gt;20,C12="yes"),"you can have sex any moment",AND(B12&gt;20,C12="no"),"Oh boy go marry first",AND(B12&lt;=20,C12="no"),"Grow first")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D13" t="e" cm="1">
+        <f t="array" ref="D13">_xlfn.IFS(AND(B13&gt;20,C13="yes"),"you can have sex any moment",AND(B13&gt;20,C13="no"),"Oh boy go marry first",AND(B13&lt;=20,C13="no"),"Grow first")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D14" t="e" cm="1">
+        <f t="array" ref="D14">_xlfn.IFS(AND(B14&gt;20,C14="yes"),"you can have sex any moment",AND(B14&gt;20,C14="no"),"Oh boy go marry first",AND(B14&lt;=20,C14="no"),"Grow first")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D15" t="e" cm="1">
+        <f t="array" ref="D15">_xlfn.IFS(AND(B15&gt;20,C15="yes"),"you can have sex any moment",AND(B15&gt;20,C15="no"),"Oh boy go marry first",AND(B15&lt;=20,C15="no"),"Grow first")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D16" t="e" cm="1">
+        <f t="array" ref="D16">_xlfn.IFS(AND(B16&gt;20,C16="yes"),"you can have sex any moment",AND(B16&gt;20,C16="no"),"Oh boy go marry first",AND(B16&lt;=20,C16="no"),"Grow first")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D17" t="e" cm="1">
+        <f t="array" ref="D17">_xlfn.IFS(AND(B17&gt;20,C17="yes"),"you can have sex any moment",AND(B17&gt;20,C17="no"),"Oh boy go marry first",AND(B17&lt;=20,C17="no"),"Grow first")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D18" t="e" cm="1">
+        <f t="array" ref="D18">_xlfn.IFS(AND(B18&gt;20,C18="yes"),"you can have sex any moment",AND(B18&gt;20,C18="no"),"Oh boy go marry first",AND(B18&lt;=20,C18="no"),"Grow first")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D19" t="e" cm="1">
+        <f t="array" ref="D19">_xlfn.IFS(AND(B19&gt;20,C19="yes"),"you can have sex any moment",AND(B19&gt;20,C19="no"),"Oh boy go marry first",AND(B19&lt;=20,C19="no"),"Grow first")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D20" t="e" cm="1">
+        <f t="array" ref="D20">_xlfn.IFS(AND(B20&gt;20,C20="yes"),"you can have sex any moment",AND(B20&gt;20,C20="no"),"Oh boy go marry first",AND(B20&lt;=20,C20="no"),"Grow first")</f>
+        <v>#N/A</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E3:G6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E448DBEE-FAC3-4C48-9D36-EBE4C43742A4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>